--- a/Crawling/crawling_data/day_genie/day_genie_20220326.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220326.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="238">
   <si>
     <t>날짜</t>
   </si>
@@ -52,8 +52,7 @@
     <t>INVU</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>사랑인가 봐</t>
@@ -275,8 +274,7 @@
     <t>밝게 빛나는 별이 되어 비춰줄게</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>그게 더 편할 것 같아 (N번째 연애 X 멜로망스)</t>
@@ -562,9 +560,6 @@
   </si>
   <si>
     <t>INVU - The 3rd Album</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
@@ -1229,7 +1224,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1246,7 +1241,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1263,7 +1258,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1280,7 +1275,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1297,7 +1292,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1365,7 +1360,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1382,7 +1377,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1416,7 +1411,7 @@
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1450,7 +1445,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1484,7 +1479,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1518,7 +1513,7 @@
         <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1569,7 +1564,7 @@
         <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1604,7 +1599,7 @@
         <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1621,7 +1616,7 @@
         <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1655,7 +1650,7 @@
         <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1672,7 +1667,7 @@
         <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1689,7 +1684,7 @@
         <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1706,7 +1701,7 @@
         <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1723,7 +1718,7 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1774,7 +1769,7 @@
         <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1791,7 +1786,7 @@
         <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1825,7 +1820,7 @@
         <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1842,7 +1837,7 @@
         <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1859,7 +1854,7 @@
         <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1876,7 +1871,7 @@
         <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1893,7 +1888,7 @@
         <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1910,7 +1905,7 @@
         <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1927,7 +1922,7 @@
         <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1944,7 +1939,7 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1961,7 +1956,7 @@
         <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1978,7 +1973,7 @@
         <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1995,7 +1990,7 @@
         <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2012,7 +2007,7 @@
         <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2046,7 +2041,7 @@
         <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2080,7 +2075,7 @@
         <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2097,7 +2092,7 @@
         <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2114,7 +2109,7 @@
         <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2131,7 +2126,7 @@
         <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2165,7 +2160,7 @@
         <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2182,7 +2177,7 @@
         <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2199,7 +2194,7 @@
         <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2216,7 +2211,7 @@
         <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2250,7 +2245,7 @@
         <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2267,7 +2262,7 @@
         <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2284,7 +2279,7 @@
         <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2301,7 +2296,7 @@
         <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2318,7 +2313,7 @@
         <v>157</v>
       </c>
       <c r="E72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2335,7 +2330,7 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2352,7 +2347,7 @@
         <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2369,7 +2364,7 @@
         <v>141</v>
       </c>
       <c r="E75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2386,7 +2381,7 @@
         <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2403,7 +2398,7 @@
         <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2488,7 +2483,7 @@
         <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2522,7 +2517,7 @@
         <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2539,7 +2534,7 @@
         <v>163</v>
       </c>
       <c r="E85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2556,7 +2551,7 @@
         <v>164</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2607,7 +2602,7 @@
         <v>167</v>
       </c>
       <c r="E89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2624,7 +2619,7 @@
         <v>168</v>
       </c>
       <c r="E90" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2675,7 +2670,7 @@
         <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2743,7 +2738,7 @@
         <v>174</v>
       </c>
       <c r="E97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2794,7 +2789,7 @@
         <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2811,7 +2806,7 @@
         <v>177</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
